--- a/TCS Internship Plan.xlsx
+++ b/TCS Internship Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3AD538-3E67-4AF0-831C-E687C3B84A9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C06C102-FA3B-4D3B-884F-585E1B007D9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -701,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -996,7 +996,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
